--- a/results/real_data_freelancer_0.1_opt_constrained/k=0.1/CSG/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/real_data_freelancer_0.1_opt_constrained/k=0.1/CSG/dataset_09/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_freelancer_0.1_opt_constrained\k=0.1\CSG\dataset_09\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D695C7CF-309D-499C-A78F-7C91E5F8DC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_09_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -618,10 +707,10 @@
         <v>105.4018270409526</v>
       </c>
       <c r="S2">
-        <v>5.473684210526316</v>
+        <v>5.4736842105263159</v>
       </c>
       <c r="T2">
-        <v>5.941176470588236</v>
+        <v>5.9411764705882364</v>
       </c>
       <c r="U2">
         <v>1.781907172785044</v>
@@ -639,10 +728,10 @@
         <v>668</v>
       </c>
       <c r="Z2">
-        <v>1.002994011976048</v>
+        <v>1.0029940119760481</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9857142857142858</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="O3">
         <v>261</v>
@@ -701,13 +790,13 @@
         <v>5.117647058823529</v>
       </c>
       <c r="T3">
-        <v>5.404255319148936</v>
+        <v>5.4042553191489358</v>
       </c>
       <c r="U3">
-        <v>1.687186665308478</v>
+        <v>1.6871866653084779</v>
       </c>
       <c r="V3">
-        <v>127.7022267305015</v>
+        <v>127.70222673050149</v>
       </c>
       <c r="W3">
         <v>778</v>
@@ -722,7 +811,7 @@
         <v>1.003870967741936</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9647435897435898</v>
+        <v>0.96474358974358976</v>
       </c>
       <c r="O4">
         <v>377</v>
@@ -772,19 +861,19 @@
         <v>65</v>
       </c>
       <c r="Q4">
-        <v>1.757857917552374</v>
+        <v>1.7578579175523741</v>
       </c>
       <c r="R4">
-        <v>197.7392353590957</v>
+        <v>197.73923535909569</v>
       </c>
       <c r="S4">
         <v>5.8</v>
       </c>
       <c r="T4">
-        <v>6.679245283018868</v>
+        <v>6.6792452830188678</v>
       </c>
       <c r="U4">
-        <v>1.899004999581653</v>
+        <v>1.8990049995816529</v>
       </c>
       <c r="V4">
         <v>200.3527350221724</v>
@@ -799,10 +888,10 @@
         <v>1076</v>
       </c>
       <c r="Z4">
-        <v>1.010223048327137</v>
+        <v>1.0102230483271371</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9945945945945946</v>
+        <v>0.99459459459459465</v>
       </c>
       <c r="O5">
         <v>253</v>
@@ -852,22 +941,22 @@
         <v>68</v>
       </c>
       <c r="Q5">
-        <v>1.313881783551414</v>
+        <v>1.3138817835514141</v>
       </c>
       <c r="R5">
-        <v>95.65603871850388</v>
+        <v>95.656038718503879</v>
       </c>
       <c r="S5">
-        <v>3.720588235294118</v>
+        <v>3.7205882352941182</v>
       </c>
       <c r="T5">
-        <v>5.487804878048781</v>
+        <v>5.4878048780487809</v>
       </c>
       <c r="U5">
         <v>1.702528335500112</v>
       </c>
       <c r="V5">
-        <v>114.1963382444954</v>
+        <v>114.19633824449539</v>
       </c>
       <c r="W5">
         <v>507</v>
@@ -882,7 +971,7 @@
         <v>1.00197628458498</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9447852760736196</v>
+        <v>0.94478527607361962</v>
       </c>
       <c r="O6">
         <v>222</v>
@@ -935,16 +1024,16 @@
         <v>1.32513993796656</v>
       </c>
       <c r="R6">
-        <v>84.81674365997296</v>
+        <v>84.816743659972957</v>
       </c>
       <c r="S6">
-        <v>3.76271186440678</v>
+        <v>3.7627118644067798</v>
       </c>
       <c r="T6">
-        <v>4.347826086956522</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="U6">
-        <v>1.469675970058942</v>
+        <v>1.4696759700589419</v>
       </c>
       <c r="V6">
         <v>86.39490537728868</v>
@@ -959,10 +1048,10 @@
         <v>655</v>
       </c>
       <c r="Z6">
-        <v>1.013740458015267</v>
+        <v>1.0137404580152669</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9447513812154696</v>
+        <v>0.94475138121546964</v>
       </c>
       <c r="O7">
         <v>256</v>
@@ -1012,19 +1101,19 @@
         <v>75</v>
       </c>
       <c r="Q7">
-        <v>1.227689330943252</v>
+        <v>1.2276893309432519</v>
       </c>
       <c r="R7">
-        <v>88.92330017925609</v>
+        <v>88.923300179256088</v>
       </c>
       <c r="S7">
         <v>3.413333333333334</v>
       </c>
       <c r="T7">
-        <v>5.071428571428571</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="U7">
-        <v>1.623622547426057</v>
+        <v>1.6236225474260571</v>
       </c>
       <c r="V7">
         <v>102.8078530081056</v>
@@ -1042,7 +1131,7 @@
         <v>1.010351966873706</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9675675675675676</v>
+        <v>0.96756756756756757</v>
       </c>
       <c r="O8">
         <v>250</v>
@@ -1095,16 +1184,16 @@
         <v>1.347073647966609</v>
       </c>
       <c r="R8">
-        <v>97.44021288217039</v>
+        <v>97.440212882170385</v>
       </c>
       <c r="S8">
-        <v>3.846153846153846</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="T8">
-        <v>4.653061224489796</v>
+        <v>4.6530612244897958</v>
       </c>
       <c r="U8">
-        <v>1.537525330843814</v>
+        <v>1.5375253308438139</v>
       </c>
       <c r="V8">
         <v>103.6612587886531</v>
@@ -1122,7 +1211,7 @@
         <v>1.006904487917146</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9545454545454546</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="O9">
         <v>187</v>
@@ -1172,22 +1261,22 @@
         <v>33</v>
       </c>
       <c r="Q9">
-        <v>1.734601055388106</v>
+        <v>1.7346010553881059</v>
       </c>
       <c r="R9">
-        <v>96.75816517219249</v>
+        <v>96.758165172192491</v>
       </c>
       <c r="S9">
         <v>5.666666666666667</v>
       </c>
       <c r="T9">
-        <v>6.653846153846154</v>
+        <v>6.6538461538461542</v>
       </c>
       <c r="U9">
-        <v>1.895195056476297</v>
+        <v>1.8951950564762969</v>
       </c>
       <c r="V9">
-        <v>97.72492853161629</v>
+        <v>97.724928531616285</v>
       </c>
       <c r="W9">
         <v>738</v>
@@ -1199,10 +1288,10 @@
         <v>731</v>
       </c>
       <c r="Z9">
-        <v>1.009575923392613</v>
+        <v>1.0095759233926129</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.8770491803278688</v>
+        <v>0.87704918032786883</v>
       </c>
       <c r="O10">
         <v>182</v>
@@ -1255,19 +1344,19 @@
         <v>1.109662124854695</v>
       </c>
       <c r="R10">
-        <v>55.42027250871831</v>
+        <v>55.420272508718313</v>
       </c>
       <c r="S10">
-        <v>3.033333333333333</v>
+        <v>3.0333333333333332</v>
       </c>
       <c r="T10">
-        <v>3.609756097560976</v>
+        <v>3.6097560975609762</v>
       </c>
       <c r="U10">
         <v>1.283640207059807</v>
       </c>
       <c r="V10">
-        <v>54.3707515105479</v>
+        <v>54.370751510547898</v>
       </c>
       <c r="W10">
         <v>672</v>
@@ -1282,7 +1371,7 @@
         <v>1.02283105022831</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9824561403508771</v>
+        <v>0.98245614035087714</v>
       </c>
       <c r="O11">
         <v>217</v>
@@ -1332,22 +1421,22 @@
         <v>46</v>
       </c>
       <c r="Q11">
-        <v>1.551255957051365</v>
+        <v>1.5512559570513651</v>
       </c>
       <c r="R11">
-        <v>99.64222597563723</v>
+        <v>99.642225975637231</v>
       </c>
       <c r="S11">
-        <v>4.717391304347826</v>
+        <v>4.7173913043478262</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="U11">
-        <v>1.6094379124341</v>
+        <v>1.6094379124341001</v>
       </c>
       <c r="V11">
-        <v>100.4036076777678</v>
+        <v>100.40360767776779</v>
       </c>
       <c r="W11">
         <v>775</v>
@@ -1359,10 +1448,53 @@
         <v>772</v>
       </c>
       <c r="Z11">
-        <v>1.003886010362694</v>
+        <v>1.0038860103626941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.96044427642509755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0086354209419839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.87704918032786883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.02283105022831</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>